--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Comp-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Comp-Itga5.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.388528</v>
+        <v>0.947566</v>
       </c>
       <c r="H2">
-        <v>1.165584</v>
+        <v>2.842698</v>
       </c>
       <c r="I2">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="J2">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N2">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q2">
-        <v>12.13332718401067</v>
+        <v>43.49891046888267</v>
       </c>
       <c r="R2">
-        <v>109.199944656096</v>
+        <v>391.490194219944</v>
       </c>
       <c r="S2">
-        <v>0.00223089121657944</v>
+        <v>0.00735789357631335</v>
       </c>
       <c r="T2">
-        <v>0.002230891216579441</v>
+        <v>0.007357893576313351</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.388528</v>
+        <v>0.947566</v>
       </c>
       <c r="H3">
-        <v>1.165584</v>
+        <v>2.842698</v>
       </c>
       <c r="I3">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="J3">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P3">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q3">
-        <v>15.71431904791467</v>
+        <v>38.32504849832267</v>
       </c>
       <c r="R3">
-        <v>141.428871431232</v>
+        <v>344.925436484904</v>
       </c>
       <c r="S3">
-        <v>0.002889309404325465</v>
+        <v>0.006482728535452197</v>
       </c>
       <c r="T3">
-        <v>0.002889309404325466</v>
+        <v>0.006482728535452197</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.388528</v>
+        <v>0.947566</v>
       </c>
       <c r="H4">
-        <v>1.165584</v>
+        <v>2.842698</v>
       </c>
       <c r="I4">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="J4">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N4">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q4">
-        <v>4.467508763909334</v>
+        <v>12.09264304097</v>
       </c>
       <c r="R4">
-        <v>40.207578875184</v>
+        <v>108.83378736873</v>
       </c>
       <c r="S4">
-        <v>0.0008214173993866186</v>
+        <v>0.002045485268313871</v>
       </c>
       <c r="T4">
-        <v>0.0008214173993866186</v>
+        <v>0.002045485268313871</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.388528</v>
+        <v>0.947566</v>
       </c>
       <c r="H5">
-        <v>1.165584</v>
+        <v>2.842698</v>
       </c>
       <c r="I5">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="J5">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N5">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q5">
-        <v>9.856816007957333</v>
+        <v>16.077123011028</v>
       </c>
       <c r="R5">
-        <v>88.711344071616</v>
+        <v>144.694107099252</v>
       </c>
       <c r="S5">
-        <v>0.001812321049461968</v>
+        <v>0.002719464898162563</v>
       </c>
       <c r="T5">
-        <v>0.001812321049461969</v>
+        <v>0.002719464898162563</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>146.916541</v>
       </c>
       <c r="I6">
-        <v>0.9773486143023076</v>
+        <v>0.9615746457924133</v>
       </c>
       <c r="J6">
-        <v>0.9773486143023077</v>
+        <v>0.9615746457924131</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N6">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q6">
-        <v>1529.350489279295</v>
+        <v>2248.114102643661</v>
       </c>
       <c r="R6">
-        <v>13764.15440351365</v>
+        <v>20233.02692379295</v>
       </c>
       <c r="S6">
-        <v>0.2811936513259733</v>
+        <v>0.3802712329195985</v>
       </c>
       <c r="T6">
-        <v>0.2811936513259733</v>
+        <v>0.3802712329195986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>146.916541</v>
       </c>
       <c r="I7">
-        <v>0.9773486143023076</v>
+        <v>0.9615746457924133</v>
       </c>
       <c r="J7">
-        <v>0.9773486143023077</v>
+        <v>0.9615746457924131</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P7">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q7">
         <v>1980.718162474808</v>
@@ -883,10 +883,10 @@
         <v>17826.46346227327</v>
       </c>
       <c r="S7">
-        <v>0.3641842574728786</v>
+        <v>0.3350408846351715</v>
       </c>
       <c r="T7">
-        <v>0.3641842574728787</v>
+        <v>0.3350408846351715</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>146.916541</v>
       </c>
       <c r="I8">
-        <v>0.9773486143023076</v>
+        <v>0.9615746457924133</v>
       </c>
       <c r="J8">
-        <v>0.9773486143023077</v>
+        <v>0.9615746457924131</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N8">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q8">
-        <v>563.1090804959101</v>
+        <v>624.9729261170318</v>
       </c>
       <c r="R8">
-        <v>5067.981724463191</v>
+        <v>5624.756335053286</v>
       </c>
       <c r="S8">
-        <v>0.1035359124997405</v>
+        <v>0.1057149300724631</v>
       </c>
       <c r="T8">
-        <v>0.1035359124997405</v>
+        <v>0.1057149300724631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>146.916541</v>
       </c>
       <c r="I9">
-        <v>0.9773486143023076</v>
+        <v>0.9615746457924133</v>
       </c>
       <c r="J9">
-        <v>0.9773486143023077</v>
+        <v>0.9615746457924131</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N9">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q9">
-        <v>1242.406650367987</v>
+        <v>830.899132448026</v>
       </c>
       <c r="R9">
-        <v>11181.65985331188</v>
+        <v>7478.092192032233</v>
       </c>
       <c r="S9">
-        <v>0.2284347930037151</v>
+        <v>0.1405475981651801</v>
       </c>
       <c r="T9">
-        <v>0.2284347930037152</v>
+        <v>0.1405475981651801</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7360316666666668</v>
+        <v>0.8226676666666667</v>
       </c>
       <c r="H10">
-        <v>2.208095</v>
+        <v>2.468003</v>
       </c>
       <c r="I10">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="J10">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N10">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q10">
-        <v>22.98550691188111</v>
+        <v>37.76533473972044</v>
       </c>
       <c r="R10">
-        <v>206.86956220693</v>
+        <v>339.888012657484</v>
       </c>
       <c r="S10">
-        <v>0.004226224571436276</v>
+        <v>0.006388052272883745</v>
       </c>
       <c r="T10">
-        <v>0.004226224571436277</v>
+        <v>0.006388052272883746</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7360316666666668</v>
+        <v>0.8226676666666667</v>
       </c>
       <c r="H11">
-        <v>2.208095</v>
+        <v>2.468003</v>
       </c>
       <c r="I11">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="J11">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P11">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q11">
-        <v>29.76937682578445</v>
+        <v>33.27343765289378</v>
       </c>
       <c r="R11">
-        <v>267.9243914320601</v>
+        <v>299.460938876044</v>
       </c>
       <c r="S11">
-        <v>0.005473539143591571</v>
+        <v>0.005628242420996401</v>
       </c>
       <c r="T11">
-        <v>0.005473539143591573</v>
+        <v>0.005628242420996401</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7360316666666668</v>
+        <v>0.8226676666666667</v>
       </c>
       <c r="H12">
-        <v>2.208095</v>
+        <v>2.468003</v>
       </c>
       <c r="I12">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="J12">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N12">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q12">
-        <v>8.46329716609389</v>
+        <v>10.49871611512834</v>
       </c>
       <c r="R12">
-        <v>76.16967449484501</v>
+        <v>94.48844503615501</v>
       </c>
       <c r="S12">
-        <v>0.001556102050558858</v>
+        <v>0.001775870591478391</v>
       </c>
       <c r="T12">
-        <v>0.001556102050558858</v>
+        <v>0.001775870591478391</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7360316666666668</v>
+        <v>0.8226676666666667</v>
       </c>
       <c r="H13">
-        <v>2.208095</v>
+        <v>2.468003</v>
       </c>
       <c r="I13">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="J13">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N13">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q13">
-        <v>18.67285939330889</v>
+        <v>13.958003214758</v>
       </c>
       <c r="R13">
-        <v>168.05573453978</v>
+        <v>125.622028932822</v>
       </c>
       <c r="S13">
-        <v>0.003433280696810976</v>
+        <v>0.002361013208951461</v>
       </c>
       <c r="T13">
-        <v>0.003433280696810977</v>
+        <v>0.002361013208951461</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01043733333333333</v>
+        <v>0.186737</v>
       </c>
       <c r="H14">
-        <v>0.031312</v>
+        <v>0.560211</v>
       </c>
       <c r="I14">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034682</v>
       </c>
       <c r="J14">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034681</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N14">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q14">
-        <v>0.3259471138808889</v>
+        <v>8.572338015745334</v>
       </c>
       <c r="R14">
-        <v>2.933524024928</v>
+        <v>77.151042141708</v>
       </c>
       <c r="S14">
-        <v>5.993018587552286E-05</v>
+        <v>0.001450021394562517</v>
       </c>
       <c r="T14">
-        <v>5.993018587552286E-05</v>
+        <v>0.001450021394562517</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01043733333333333</v>
+        <v>0.186737</v>
       </c>
       <c r="H15">
-        <v>0.031312</v>
+        <v>0.560211</v>
       </c>
       <c r="I15">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034682</v>
       </c>
       <c r="J15">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034681</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P15">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q15">
-        <v>0.4221461156195556</v>
+        <v>7.552724117825334</v>
       </c>
       <c r="R15">
-        <v>3.799315040576001</v>
+        <v>67.974517060428</v>
       </c>
       <c r="S15">
-        <v>7.761779165486053E-05</v>
+        <v>0.001277552464445471</v>
       </c>
       <c r="T15">
-        <v>7.761779165486055E-05</v>
+        <v>0.001277552464445471</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01043733333333333</v>
+        <v>0.186737</v>
       </c>
       <c r="H16">
-        <v>0.031312</v>
+        <v>0.560211</v>
       </c>
       <c r="I16">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034682</v>
       </c>
       <c r="J16">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034681</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N16">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q16">
-        <v>0.1200142026791111</v>
+        <v>2.383099312915</v>
       </c>
       <c r="R16">
-        <v>1.080127824112</v>
+        <v>21.447893816235</v>
       </c>
       <c r="S16">
-        <v>2.206638183914141E-05</v>
+        <v>0.0004031041453039971</v>
       </c>
       <c r="T16">
-        <v>2.206638183914141E-05</v>
+        <v>0.0004031041453039971</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.01043733333333333</v>
+        <v>0.186737</v>
       </c>
       <c r="H17">
-        <v>0.031312</v>
+        <v>0.560211</v>
       </c>
       <c r="I17">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034682</v>
       </c>
       <c r="J17">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034681</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N17">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q17">
-        <v>0.2647914031431111</v>
+        <v>3.168321488646</v>
       </c>
       <c r="R17">
-        <v>2.383122628288</v>
+        <v>28.514893397814</v>
       </c>
       <c r="S17">
-        <v>4.868580617162997E-05</v>
+        <v>0.0005359254307226965</v>
       </c>
       <c r="T17">
-        <v>4.868580617162998E-05</v>
+        <v>0.0005359254307226965</v>
       </c>
     </row>
   </sheetData>
